--- a/biology/Botanique/Cerise_de_Montmorency/Cerise_de_Montmorency.xlsx
+++ b/biology/Botanique/Cerise_de_Montmorency/Cerise_de_Montmorency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cerise ou griotte de Montmorency, courte queue ou « gaudriole », fait partie, comme son appellation l'indique, de la famille des griottes. C'est une variété cultivée de Prunus cerasus[1]. Elle a une couleur vive, une queue courte ou longue selon la sous-variété, une enveloppe très fine, une chair tendre et un jus incolore légèrement acidulé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cerise ou griotte de Montmorency, courte queue ou « gaudriole », fait partie, comme son appellation l'indique, de la famille des griottes. C'est une variété cultivée de Prunus cerasus. Elle a une couleur vive, une queue courte ou longue selon la sous-variété, une enveloppe très fine, une chair tendre et un jus incolore légèrement acidulé.
 Au XIXe siècle, des Parisiens louent des arbres à l'heure pour manger des gaudrioles sur place.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>La production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est cultivée dès le XVIIIe siècle. Il existait des vergers au bord de la forêt de Montmorency.
 Les communes de Soisy-sous-Montmorency et de Saint-Prix sont les derniers lieux où les agriculteurs maintiennent une production. Elle concerne la Montmorency royale et de Saint-Aignan greffées sur des merisiers.
 Elles doivent être récoltées avec la queue sous peine de ne pas se conserver. Elles sont transformées sous forme de confiture, pasteurisation ou eau-de-vie.
-En Amérique du Nord, les griottes de Montmorency sont cultivées notamment au Michigan et au Wisconsin aux États-Unis et en Ontario au Canada, pour la production de jus, de tartes. etc. Des recherches récentes[2] indiquent qu'elles seraient riches en anthocyanes.
+En Amérique du Nord, les griottes de Montmorency sont cultivées notamment au Michigan et au Wisconsin aux États-Unis et en Ontario au Canada, pour la production de jus, de tartes. etc. Des recherches récentes indiquent qu'elles seraient riches en anthocyanes.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une œuvre de 1690 décrit la cerise de Montmorency : "La Cerise de Montmorency est grosse &amp; tardive; elle change moins que les autres; Elle est admirable à manger &amp; à confire, ayant une douceur &amp; une fermeté particulière. Il y en a de deux sortes, l’une à longue queue, &amp; l’autre à courte-queue; celle cy est plus estimée &amp; recherché : On les nomme dans le Païs, Coulars." [3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une œuvre de 1690 décrit la cerise de Montmorency : "La Cerise de Montmorency est grosse &amp; tardive; elle change moins que les autres; Elle est admirable à manger &amp; à confire, ayant une douceur &amp; une fermeté particulière. Il y en a de deux sortes, l’une à longue queue, &amp; l’autre à courte-queue; celle cy est plus estimée &amp; recherché : On les nomme dans le Païs, Coulars." .
 </t>
         </is>
       </c>
